--- a/DIAGRAMA DE GANT.xlsx
+++ b/DIAGRAMA DE GANT.xlsx
@@ -427,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -445,9 +445,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1029,8 +1026,8 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1045,37 +1042,37 @@
     <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="17" t="s">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1095,7 +1092,7 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="5"/>
@@ -1118,7 +1115,7 @@
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="5"/>
@@ -1141,7 +1138,7 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="5"/>
@@ -1164,7 +1161,7 @@
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="5"/>
@@ -1187,7 +1184,7 @@
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="5"/>
@@ -1210,7 +1207,7 @@
       <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="5"/>
@@ -1228,16 +1225,16 @@
         <v>14</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="6"/>
@@ -1253,13 +1250,13 @@
         <v>14</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="5"/>
@@ -1276,13 +1273,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="5"/>
@@ -1299,14 +1296,14 @@
         <v>14</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="6"/>
@@ -1322,14 +1319,14 @@
         <v>14</v>
       </c>
       <c r="D13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="6"/>
@@ -1345,7 +1342,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1353,7 +1350,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1368,7 +1365,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
@@ -1376,7 +1373,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1391,7 +1388,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -1399,7 +1396,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1413,574 +1410,574 @@
       <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="9">
-        <v>0</v>
+      <c r="D17" s="4">
+        <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="16" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>45968</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>45970</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="18">
         <v>3</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45658</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>45968</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>45968</v>
       </c>
-      <c r="G22" s="19">
-        <v>1</v>
-      </c>
-      <c r="H22" s="22">
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
+      <c r="H22" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>45689</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>45968</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>45968</v>
       </c>
-      <c r="G23" s="19">
-        <v>1</v>
-      </c>
-      <c r="H23" s="22">
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
+      <c r="H23" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45717</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>45969</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="20">
         <v>45970</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="18">
         <v>2</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
+      <c r="A25" s="22">
         <v>45748</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>45969</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <v>45969</v>
       </c>
-      <c r="G25" s="19">
-        <v>1</v>
-      </c>
-      <c r="H25" s="22">
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
+      <c r="H25" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
+      <c r="A26" s="22">
         <v>45778</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>45970</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <v>45970</v>
       </c>
-      <c r="G26" s="19">
-        <v>1</v>
-      </c>
-      <c r="H26" s="22">
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45809</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>45970</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <v>45970</v>
       </c>
-      <c r="G27" s="19">
-        <v>1</v>
-      </c>
-      <c r="H27" s="22">
+      <c r="G27" s="18">
+        <v>1</v>
+      </c>
+      <c r="H27" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
+      <c r="A28" s="22">
         <v>45839</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <v>45970</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <v>45970</v>
       </c>
-      <c r="G28" s="19">
-        <v>1</v>
-      </c>
-      <c r="H28" s="22">
+      <c r="G28" s="18">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45870</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>45970</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <v>45970</v>
       </c>
-      <c r="G29" s="19">
-        <v>1</v>
-      </c>
-      <c r="H29" s="22">
+      <c r="G29" s="18">
+        <v>1</v>
+      </c>
+      <c r="H29" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>45971</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="23">
         <v>45984</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="18">
         <v>14</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>45659</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="23">
         <v>45971</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="23">
         <v>45974</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="18">
         <v>4</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
+      <c r="A32" s="22">
         <v>45690</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="23">
         <v>45972</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="23">
         <v>45975</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="18">
         <v>4</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>45718</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="23">
         <v>45975</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="23">
         <v>45979</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="18">
         <v>5</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23">
+      <c r="A34" s="22">
         <v>45749</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="23">
         <v>45979</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="23">
         <v>45983</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="18">
         <v>5</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23">
+      <c r="A35" s="22">
         <v>45779</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="23">
         <v>45984</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="23">
         <v>45984</v>
       </c>
-      <c r="G35" s="19">
-        <v>1</v>
-      </c>
-      <c r="H35" s="22">
+      <c r="G35" s="18">
+        <v>1</v>
+      </c>
+      <c r="H35" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="23">
         <v>45985</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <v>45998</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="18">
         <v>14</v>
       </c>
-      <c r="H36" s="22">
-        <v>0</v>
+      <c r="H36" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23">
+      <c r="A37" s="22">
         <v>45660</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="23">
         <v>45985</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="23">
         <v>45989</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="18">
         <v>5</v>
       </c>
-      <c r="H37" s="22">
-        <v>0</v>
+      <c r="H37" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23">
+      <c r="A38" s="22">
         <v>45691</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="23">
         <v>45990</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="20">
         <v>45995</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="18">
         <v>6</v>
       </c>
-      <c r="H38" s="22">
-        <v>0</v>
+      <c r="H38" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>45719</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="20">
         <v>45996</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="20">
         <v>45997</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="18">
         <v>2</v>
       </c>
-      <c r="H39" s="22">
-        <v>0</v>
+      <c r="H39" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>45750</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="21">
-        <v>46004</v>
-      </c>
-      <c r="F40" s="21">
+      <c r="E40" s="20">
         <v>45998</v>
       </c>
-      <c r="G40" s="19">
-        <v>1</v>
-      </c>
-      <c r="H40" s="22">
-        <v>0</v>
+      <c r="F40" s="20">
+        <v>45998</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1</v>
+      </c>
+      <c r="H40" s="21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
